--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507348.7853742161</v>
+        <v>509053.5413884826</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5572563.744829689</v>
+        <v>5572563.744829688</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>37.18582309281555</v>
+        <v>208.3499059835998</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
@@ -962,7 +964,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -996,7 +998,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>83.49736389115709</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>220.8837963815378</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1233,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,10 +1265,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>179.4424403754322</v>
       </c>
       <c r="U9" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1373,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>232.8330857361503</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1461,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>55.32415054247422</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>212.2853856434421</v>
@@ -1689,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1698,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>102.4010674667548</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>203.2913221445022</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1804,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.265316057196634</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>147.2379120664689</v>
+        <v>51.50265029947249</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>23.81301614990503</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2181,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>89.66547645067541</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6009592528876</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>17.38540584383043</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,61 +2484,61 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>114.9581870864144</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2640,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>150.9993436124999</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>21.53127153297047</v>
       </c>
     </row>
     <row r="28">
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,19 +2839,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2871,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>30.67690516600952</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,22 +2924,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3038,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
@@ -3111,22 +3113,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>36.21013247916151</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>118.3968738826468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3308,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>90.50278177497624</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3408,10 +3410,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
@@ -3515,52 +3517,52 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>29.79900896488263</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>222.3396163656984</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>150.4149128677507</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="43">
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,25 +3982,25 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>12.94771755361639</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,70 +4134,70 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>342.668582052591</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C3" t="n">
-        <v>168.215552771464</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W3" t="n">
-        <v>926.4957180431458</v>
+        <v>417.2810673432945</v>
       </c>
       <c r="X3" t="n">
-        <v>718.6442178376129</v>
+        <v>417.2810673432945</v>
       </c>
       <c r="Y3" t="n">
-        <v>510.883919072659</v>
+        <v>417.2810673432945</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4586,28 +4588,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
         <v>19.28114311021272</v>
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,13 +4652,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>605.1295099069614</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>605.1295099069614</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>605.1295099069614</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C8" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="F8" t="n">
-        <v>467.067986854209</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G8" t="n">
-        <v>467.067986854209</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V8" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W8" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C9" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D9" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="U9" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="V9" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="W9" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X9" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.4348659156472</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C11" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D11" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5124,46 +5126,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>908.1741751647027</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>734.7568306153715</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>734.7568306153715</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>506.5332123517606</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>271.3811041200179</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>271.3811041200179</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>271.3811041200179</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y12" t="n">
-        <v>271.3811041200179</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5261,7 +5263,7 @@
         <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F14" t="n">
         <v>233.7108255783361</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>397.246007331692</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>397.246007331692</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>248.3115976704407</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5364,43 +5366,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>860.6217338270455</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>632.3981155634347</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V15" t="n">
-        <v>397.246007331692</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W15" t="n">
-        <v>397.246007331692</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X15" t="n">
-        <v>397.246007331692</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>397.246007331692</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5452,13 +5454,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
         <v>19.28114311021272</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D17" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E17" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>110.334904905842</v>
+        <v>912.03427642026</v>
       </c>
       <c r="W18" t="n">
-        <v>110.334904905842</v>
+        <v>912.03427642026</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>704.1827762147271</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>496.4224774497732</v>
       </c>
     </row>
     <row r="19">
@@ -5695,19 +5697,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>114.6452713866835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>358.0940480307835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>114.6452713866835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>114.6452713866835</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.9119902784999</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C24" t="n">
-        <v>312.4589609973729</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>36.84215911408185</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
         <v>725.4530095217538</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U26" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V26" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>609.3459713618265</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X27" t="n">
-        <v>401.4944711562937</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>667.7215223899782</v>
       </c>
     </row>
     <row r="28">
@@ -6406,19 +6408,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>104.5536560184564</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C29" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>104.5536560184564</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E29" t="n">
-        <v>104.5536560184564</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>104.5536560184564</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>104.5536560184564</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>104.5536560184564</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>104.5536560184564</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.84447166430675</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="C30" t="n">
-        <v>69.84447166430675</v>
+        <v>359.1939133246643</v>
       </c>
       <c r="D30" t="n">
-        <v>69.84447166430675</v>
+        <v>210.2595036634131</v>
       </c>
       <c r="E30" t="n">
-        <v>69.84447166430675</v>
+        <v>51.02204865795755</v>
       </c>
       <c r="F30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>69.84447166430675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,16 +6551,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.84447166430675</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
         <v>19.28114311021272</v>
@@ -6646,25 +6648,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
+        <v>274.7999090013961</v>
+      </c>
+      <c r="G32" t="n">
+        <v>274.7999090013961</v>
+      </c>
+      <c r="H32" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="I32" t="n">
+        <v>31.35113235729608</v>
+      </c>
+      <c r="J32" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="I32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J32" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.0119685275972</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>398.2566246559538</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>398.2566246559538</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y33" t="n">
-        <v>158.0119685275972</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6935,7 +6937,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.6980943980675</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.6980943980675</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7056,10 +7058,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="37">
@@ -7114,13 +7116,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7250,19 @@
         <v>49.38115216564972</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7438,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T41" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V41" t="n">
-        <v>742.8341567219593</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>499.3853800778592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>171.2153985321831</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,16 +7499,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>339.4307355522512</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7591,25 +7593,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>193.7341723913397</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7728,16 +7730,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7758,19 +7760,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>777.5613083818946</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V45" t="n">
-        <v>777.5613083818946</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W45" t="n">
-        <v>777.5613083818946</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X45" t="n">
-        <v>569.7098081763618</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y45" t="n">
-        <v>361.9495094114078</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="46">
@@ -7843,13 +7845,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>360.302996258564</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133072</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10197,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10913,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,10 +11387,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.2485028631349</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22547,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22595,25 +22597,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22683,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>214.5091600681041</v>
+        <v>43.34507717731981</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22841,7 +22843,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
@@ -22850,7 +22852,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,16 +22865,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22884,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>116.6673648036645</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,7 +22925,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>118.5910057342293</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23109,7 +23111,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23121,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,10 +23153,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>20.72228831938943</v>
       </c>
       <c r="U9" t="n">
-        <v>102.3410493332383</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23261,13 +23263,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>174.0429600055611</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,7 +23278,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23349,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.83368361016891</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23501,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>203.0173518716929</v>
@@ -23577,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>97.76366122806684</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>48.40366101641743</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23692,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23732,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>362.0075757138109</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>354.4504772539638</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23829,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>85.56267508295639</v>
+        <v>181.2979368499528</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,7 +23971,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>341.4598756211025</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23987,7 +23989,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24026,10 +24028,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>131.8725095025868</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24069,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>312.4655587480054</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,10 +24253,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>14.84410631175118</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>140.2596746115705</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24458,10 +24460,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>108.137662477717</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>246.9027416247241</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24528,10 +24530,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>100.6956395484197</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>184.1514242443339</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>322.4562579625502</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24759,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>114.3923072273744</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>62.17774896794338</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,22 +24812,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24886,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24926,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,10 +24970,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>43.08181652002401</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
@@ -24999,22 +25001,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>108.8590799142224</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,7 +25046,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25053,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>87.28582189465756</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25196,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25242,13 +25244,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>21.73266246152022</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25296,10 +25298,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25354,16 +25356,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
@@ -25403,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>125.4575720412377</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>59.59762388653245</v>
+        <v>60.3442152127903</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>147.3914843127706</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>22.29358612056504</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25916,22 +25918,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25962,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>25.50780978689276</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>212.9936645273584</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481925.4952859363</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26335,10 +26337,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26442,22 +26444,22 @@
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29593.37421928579</v>
+        <v>-29593.37421928577</v>
       </c>
       <c r="C6" t="n">
-        <v>51176.05731226199</v>
+        <v>51176.05731226192</v>
       </c>
       <c r="D6" t="n">
-        <v>51176.05731226198</v>
+        <v>51176.05731226193</v>
       </c>
       <c r="E6" t="n">
-        <v>84803.65731226199</v>
+        <v>84803.65731226194</v>
       </c>
       <c r="F6" t="n">
-        <v>84803.65731226199</v>
+        <v>84803.65731226196</v>
       </c>
       <c r="G6" t="n">
         <v>84803.65731226196</v>
       </c>
       <c r="H6" t="n">
+        <v>84803.65731226197</v>
+      </c>
+      <c r="I6" t="n">
         <v>84803.65731226196</v>
       </c>
-      <c r="I6" t="n">
-        <v>84803.65731226197</v>
-      </c>
       <c r="J6" t="n">
-        <v>21743.71471315576</v>
+        <v>21743.71471315574</v>
       </c>
       <c r="K6" t="n">
-        <v>84803.65731226199</v>
+        <v>84803.65731226194</v>
       </c>
       <c r="L6" t="n">
         <v>84803.65731226196</v>
@@ -26558,7 +26560,7 @@
         <v>84803.65731226196</v>
       </c>
       <c r="O6" t="n">
-        <v>84803.65731226197</v>
+        <v>84803.65731226194</v>
       </c>
       <c r="P6" t="n">
         <v>84803.65731226196</v>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>217.7067518141195</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35018,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>99.8112771299739</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35182,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,7 +35734,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N24" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37865,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38105,10 +38107,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
